--- a/Cảm biến + Sim.xlsx
+++ b/Cảm biến + Sim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/43e69fe3b798304f/Work/PIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC104887E15F42345ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E10DD1B7-E99C-41C5-98E4-6E221E225B3E}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC104887E15F42345ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{461D93FE-AB1F-4C90-925B-41DF96884CB8}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="1155" windowWidth="20205" windowHeight="13605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8892" yWindow="2544" windowWidth="21600" windowHeight="15420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Zero</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>CCD</t>
+  </si>
+  <si>
+    <t>01697106831</t>
+  </si>
+  <si>
+    <t>Ấp 5</t>
+  </si>
+  <si>
+    <t>0378064430</t>
+  </si>
+  <si>
+    <t>Ngày 20/12/2025 thì tài khoản gốc còn 209.000đ</t>
   </si>
 </sst>
 </file>
@@ -138,13 +150,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -184,29 +196,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,9 +494,9 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -547,21 +547,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4198199E-6EFB-4E2F-AA15-45E6757C4120}">
-  <dimension ref="B2:E14"/>
+  <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.296875" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -571,148 +571,168 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="3">
         <v>46011</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>46078</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <v>46208</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <v>45865</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="3">
         <v>46099</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <v>46068</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>46099</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="8">
-        <v>46078</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="3">
+        <v>46313</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="6"/>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3">
+        <v>46078</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3">
+        <v>46588</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cảm biến + Sim.xlsx
+++ b/Cảm biến + Sim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/43e69fe3b798304f/Work/PIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC104887E15F42345ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{461D93FE-AB1F-4C90-925B-41DF96884CB8}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_F25DC773A252ABDACC104887E15F42345ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7A00BAB-7FDB-4A7E-973E-B13E6CFBF0B0}"/>
   <bookViews>
-    <workbookView xWindow="8892" yWindow="2544" windowWidth="21600" windowHeight="15420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Zero</t>
   </si>
@@ -127,9 +127,6 @@
     <t>A.L.Bình</t>
   </si>
   <si>
-    <t>Mobi</t>
-  </si>
-  <si>
     <t>CCD</t>
   </si>
   <si>
@@ -143,6 +140,24 @@
   </si>
   <si>
     <t>Ngày 20/12/2025 thì tài khoản gốc còn 209.000đ</t>
+  </si>
+  <si>
+    <t>01698049563</t>
+  </si>
+  <si>
+    <t>Abdc@1243</t>
+  </si>
+  <si>
+    <t>Đ.H.Vương</t>
+  </si>
+  <si>
+    <t>01698049586</t>
+  </si>
+  <si>
+    <t>Abdc@1244</t>
+  </si>
+  <si>
+    <t>01698049699</t>
   </si>
 </sst>
 </file>
@@ -152,13 +167,34 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,10 +229,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -208,8 +245,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -547,10 +587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4198199E-6EFB-4E2F-AA15-45E6757C4120}">
-  <dimension ref="B2:F14"/>
+  <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -559,6 +599,7 @@
     <col min="3" max="3" width="14.69921875" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.8984375" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.3984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -678,7 +719,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>14</v>
@@ -699,42 +740,78 @@
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3">
+        <v>46374</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="3">
-        <v>46078</v>
+        <v>46374</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3">
+        <v>46078</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3">
+        <v>46588</v>
+      </c>
+      <c r="F15" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3">
-        <v>46588</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
+    </row>
+    <row r="17" spans="3:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F12" r:id="rId1" xr:uid="{189DDD83-CB32-4AF8-8965-B0BB3F8301C5}"/>
+    <hyperlink ref="F13" r:id="rId2" display="Abdc@1243" xr:uid="{B064E244-A0A7-4392-AB3D-A6C49C1B38F0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>